--- a/Week 9/Class Activity 2/Tracking Meta-Data -- Project Data Management.xlsx
+++ b/Week 9/Class Activity 2/Tracking Meta-Data -- Project Data Management.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicka\OneDrive\Desktop\1 Modern Data Structures - GR5072\QMSS-GR5072_Spring2023\Week 9\Class Activity 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lulu\Documents\GitHub\QMSS-GR5072-Spring2025_Class\Week 9\Class Activity 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{512E0629-EBCB-4BA4-B72B-E43E5356B012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="830"/>
   </bookViews>
   <sheets>
     <sheet name="Data Validation" sheetId="3" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Validation'!$A$1:$M$48</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -199,9 +198,6 @@
     <t>Text info</t>
   </si>
   <si>
-    <t>DV question</t>
-  </si>
-  <si>
     <t>sexuality</t>
   </si>
   <si>
@@ -364,86 +360,91 @@
     <t>3 values top coded at 35. 2  0s set to missing</t>
   </si>
   <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Made 2 categories: single vs not</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>Made 5 categories: (1) former bf/gf, (2) former live-in partner, (3) at least one was not in a committed relationship, (4) former spouse, (5) other</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>rltsp_years_since</t>
+  </si>
+  <si>
+    <t>Made 2 categories: male vs female since non-binary is only 31 respondents</t>
+  </si>
+  <si>
+    <t>Analysis Decisions</t>
+  </si>
+  <si>
+    <t>Top coded at 35, if 0 set to missing (affected about 5 respondents)</t>
+  </si>
+  <si>
+    <t>The max is 99, this was set to missing</t>
+  </si>
+  <si>
+    <t>Top coded at 35, affected 2 people who were 70 years+</t>
+  </si>
+  <si>
+    <t>260 (answered no questions)</t>
+  </si>
+  <si>
+    <t>no missing data</t>
+  </si>
+  <si>
+    <t>ctts_16</t>
+  </si>
+  <si>
+    <t>2/9 request</t>
+  </si>
+  <si>
+    <t>Made 2 categories: heterosexual, homosexual</t>
+  </si>
+  <si>
+    <t>Drop items 14 and 15</t>
+  </si>
+  <si>
+    <t>Drop items 4, 6, 7, 9, 14</t>
+  </si>
+  <si>
     <t>Data is 77% missing. Some who reported being single (Q9) answered this question, should we mark these responses as missing data?</t>
-  </si>
-  <si>
-    <t>Categories</t>
-  </si>
-  <si>
-    <t>Made 2 categories: single vs not</t>
-  </si>
-  <si>
-    <t>Missing</t>
-  </si>
-  <si>
-    <t>Made 5 categories: (1) former bf/gf, (2) former live-in partner, (3) at least one was not in a committed relationship, (4) former spouse, (5) other</t>
-  </si>
-  <si>
-    <t>Continuous</t>
-  </si>
-  <si>
-    <t>rltsp_years_since</t>
-  </si>
-  <si>
-    <t>Made 2 categories: male vs female since non-binary is only 31 respondents</t>
-  </si>
-  <si>
-    <t>Analysis Decisions</t>
-  </si>
-  <si>
-    <t>Top coded at 35, if 0 set to missing (affected about 5 respondents)</t>
-  </si>
-  <si>
-    <t>The max is 99, this was set to missing</t>
-  </si>
-  <si>
-    <t>Top coded at 35, affected 2 people who were 70 years+</t>
-  </si>
-  <si>
-    <t>260 (answered no questions)</t>
-  </si>
-  <si>
-    <t>no missing data</t>
-  </si>
-  <si>
-    <t>ctts_16</t>
-  </si>
-  <si>
-    <t>2/9 request</t>
-  </si>
-  <si>
-    <t>Made 2 categories: heterosexual, homosexual</t>
-  </si>
-  <si>
-    <t>Drop items 14 and 15</t>
-  </si>
-  <si>
-    <t>Drop items 4, 6, 7, 9, 14</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV (Data validation) question</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -451,7 +452,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -459,7 +460,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -467,35 +468,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -503,7 +504,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -511,14 +512,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -526,14 +527,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -541,7 +542,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -549,21 +550,28 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -931,48 +939,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="中等" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="合計" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="計算方式" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="連結的儲存格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="備註" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="說明文字" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="輔色1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="輔色2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="輔色3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="輔色4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="輔色6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="標題" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="標題 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="標題 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="標題 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="標題 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="輸入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="輸出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="檢查儲存格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="壞" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="警告文字" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -996,7 +1004,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1014,22 +1021,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{87718012-8AC4-427D-B1A9-E97517CE0981}" name="Table1" displayName="Table1" ref="A1:M48" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
-  <autoFilter ref="A1:M48" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M48" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
+  <autoFilter ref="A1:M48"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{5BEF0CC0-4127-4909-B8C3-A8BECD3036EA}" name="Var name (Orig)"/>
-    <tableColumn id="2" xr3:uid="{22B4EC29-C1D9-4943-931C-7212978A9516}" name="Var name R"/>
-    <tableColumn id="3" xr3:uid="{26B21A8B-A906-4BD6-9CF8-6FD866B1009B}" name="Scale"/>
-    <tableColumn id="4" xr3:uid="{E5E6BD4A-6CB3-4CF6-A55C-6FA7BC99D626}" name="Needed"/>
-    <tableColumn id="5" xr3:uid="{66090195-C682-4F2C-B4BF-186444499779}" name="Text info"/>
-    <tableColumn id="6" xr3:uid="{00611239-6300-4436-BA27-49424D7E12E2}" name="1/7 request"/>
-    <tableColumn id="7" xr3:uid="{15282480-0180-4E0C-A3B5-3F9DC571F92C}" name="2/9 request"/>
-    <tableColumn id="8" xr3:uid="{F04A580B-44CE-4576-908D-99313A978338}" name="Categories"/>
-    <tableColumn id="9" xr3:uid="{CB87B4ED-B01B-4AD5-9383-D5B4872B045E}" name="Analysis Decisions"/>
-    <tableColumn id="10" xr3:uid="{134E4C7C-2242-4067-8D22-221DB2B641FA}" name="Missing"/>
-    <tableColumn id="11" xr3:uid="{AD999957-E7C4-4C7B-B9FB-66EF77A5F521}" name="Assumptions"/>
-    <tableColumn id="12" xr3:uid="{7FCDB3EA-864D-46F7-92A0-3E0B3A365DD5}" name="DV question"/>
-    <tableColumn id="13" xr3:uid="{B7B3C116-EB1D-45EE-AC73-E268627572DC}" name="Actions"/>
+    <tableColumn id="1" name="Var name (Orig)"/>
+    <tableColumn id="2" name="Var name R"/>
+    <tableColumn id="3" name="Scale"/>
+    <tableColumn id="4" name="Needed"/>
+    <tableColumn id="5" name="Text info"/>
+    <tableColumn id="6" name="1/7 request"/>
+    <tableColumn id="7" name="2/9 request"/>
+    <tableColumn id="8" name="Categories"/>
+    <tableColumn id="9" name="Analysis Decisions"/>
+    <tableColumn id="10" name="Missing"/>
+    <tableColumn id="11" name="Assumptions"/>
+    <tableColumn id="12" name="DV (Data validation) question"/>
+    <tableColumn id="13" name="Actions"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1331,32 +1338,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
+      <selection pane="bottomRight" activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.296875" customWidth="1"/>
+    <col min="3" max="3" width="7.69921875" customWidth="1"/>
+    <col min="4" max="4" width="10.296875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="73.5703125" customWidth="1"/>
-    <col min="10" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="59.85546875" customWidth="1"/>
-    <col min="13" max="13" width="43.42578125" customWidth="1"/>
+    <col min="6" max="7" width="14.59765625" customWidth="1"/>
+    <col min="8" max="8" width="14.59765625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="73.59765625" customWidth="1"/>
+    <col min="10" max="11" width="14.59765625" customWidth="1"/>
+    <col min="12" max="12" width="59.8984375" customWidth="1"/>
+    <col min="13" max="13" width="43.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -1364,7 +1371,7 @@
         <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>51</v>
@@ -1373,48 +1380,48 @@
         <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
         <v>48</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1428,21 +1435,21 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
         <v>48</v>
@@ -1454,13 +1461,13 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J4">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1469,72 +1476,72 @@
       </c>
       <c r="H5"/>
       <c r="L5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
         <v>48</v>
       </c>
       <c r="H6"/>
       <c r="L6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
         <v>48</v>
       </c>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
         <v>47</v>
       </c>
       <c r="H8"/>
       <c r="L8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
         <v>47</v>
       </c>
       <c r="H9"/>
       <c r="L9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
         <v>48</v>
@@ -1546,49 +1553,49 @@
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
         <v>47</v>
       </c>
       <c r="H11"/>
       <c r="L11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
         <v>47</v>
       </c>
       <c r="H12"/>
       <c r="L12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1600,15 +1607,15 @@
       </c>
       <c r="H13"/>
       <c r="L13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
         <v>48</v>
@@ -1620,60 +1627,60 @@
         <v>7</v>
       </c>
       <c r="I14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="2"/>
       <c r="F15" t="s">
         <v>48</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J15">
         <v>2</v>
       </c>
       <c r="K15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="2"/>
       <c r="F16" t="s">
         <v>48</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J16">
         <v>2</v>
       </c>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1685,47 +1692,47 @@
       </c>
       <c r="H17"/>
       <c r="L17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H18"/>
       <c r="L18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s">
         <v>48</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
         <v>48</v>
@@ -1737,150 +1744,150 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F21" t="s">
         <v>48</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J22">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F23" t="s">
         <v>48</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G26" t="s">
         <v>48</v>
       </c>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s">
         <v>48</v>
       </c>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F29" t="s">
         <v>47</v>
       </c>
       <c r="H29"/>
       <c r="L29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
         <v>48</v>
       </c>
       <c r="H30"/>
       <c r="L30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
         <v>48</v>
@@ -1890,7 +1897,7 @@
       </c>
       <c r="H31"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1899,15 +1906,15 @@
       </c>
       <c r="H32"/>
       <c r="L32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
@@ -1919,94 +1926,94 @@
         <v>48</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M33" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D34" t="s">
         <v>47</v>
       </c>
       <c r="H34"/>
       <c r="L34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
         <v>48</v>
       </c>
       <c r="H35"/>
       <c r="M35" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H36"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s">
         <v>48</v>
       </c>
       <c r="H37"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
         <v>48</v>
       </c>
       <c r="H38"/>
       <c r="L38" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C39" t="s">
         <v>48</v>
       </c>
       <c r="H39"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2018,10 +2025,10 @@
       </c>
       <c r="H40"/>
       <c r="L40" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2033,10 +2040,10 @@
       </c>
       <c r="H41"/>
       <c r="L41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2048,10 +2055,10 @@
       </c>
       <c r="H42"/>
       <c r="L42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2060,10 +2067,10 @@
       </c>
       <c r="H43"/>
       <c r="L43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2072,30 +2079,30 @@
       </c>
       <c r="H44"/>
       <c r="L44" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E45" t="s">
         <v>48</v>
       </c>
       <c r="H45"/>
       <c r="L45" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C46" t="s">
         <v>48</v>
@@ -2104,13 +2111,13 @@
         <v>48</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2119,7 +2126,7 @@
       </c>
       <c r="H47"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2128,10 +2135,11 @@
       </c>
       <c r="H48"/>
       <c r="L48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
